--- a/medicine/Enfance/Graciliano_Ramos/Graciliano_Ramos.xlsx
+++ b/medicine/Enfance/Graciliano_Ramos/Graciliano_Ramos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graciliano Ramos de Oliveira (Quebrangulo, 27 octobre 1892 - Rio de Janeiro, 20 mars 1953) est un écrivain brésilien. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe les premières années de sa vie dans différentes villes du Nordeste, avant de terminer ses études secondaires à Maceió, puis de partir pour Rio de Janeiro, où il décroche un emploi de journaliste. 
 En septembre 1915, il retourne dans le Nord pour accompagner son père, marchand à Palmeira dos Índios, Alagoas. Cette même année, il épouse Maria Augusta de Barros, qui meurt en 1920, lui laissant quatre enfants.
@@ -550,10 +564,12 @@
           <t>Le style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacqueline Penjon, linguiste et spécialiste de la littérature lusophone, décrit l'œuvre ainsi :
-« Toute son œuvre est profondément marquée par un Nord-Est dépourvu d’exotisme: ni description complaisante des paysages, ni vision paternaliste des problèmes, mais attitude critique, étude de l'homme dans son milieu, sa lutte pour la survie, dans ses souffrances et ses aspirations. Les trois premiers romans, écrits à la première personne, se livrent à une dissection psychologique de l'être. Un peu timide dans Caetés, où le héros, employé de commerce, écrivain raté, nourrit une passion coupable pour la femme de son patron, elle s'affine dans São Bernardo et Angoisse. L'homme est seul, confronté au mal, sans perspective de salut, dans une société moralement et politiquement corrompue. Dans Sécheresse, seul roman à la troisième personne, l'analyse psychologique cède le pas à l'étude des conditions de vie. Dans les mémoires, Enfance et Mémoires de prison, biographie et fiction se mêlent étroitement dans l'injustice et l'incompréhension de certaines situations de l'enfance, comme dans la violence et l'arbitraire de la prison sous la dictature de G. Vargas. À l'image de l'univers hostile, le style est sec et dépouillé. L'adjectif est banni, G. Ramos recherche la concision, le mot juste; les expressions populaires sertanejas font leur entrée en littérature. Il s'élève contre le langage pédant et fleuri des « bacheliers ». Ramos a su capter l'essentiel de la personnalité humaine, réconciliant régionalisme et universalité. »[1]</t>
+« Toute son œuvre est profondément marquée par un Nord-Est dépourvu d’exotisme: ni description complaisante des paysages, ni vision paternaliste des problèmes, mais attitude critique, étude de l'homme dans son milieu, sa lutte pour la survie, dans ses souffrances et ses aspirations. Les trois premiers romans, écrits à la première personne, se livrent à une dissection psychologique de l'être. Un peu timide dans Caetés, où le héros, employé de commerce, écrivain raté, nourrit une passion coupable pour la femme de son patron, elle s'affine dans São Bernardo et Angoisse. L'homme est seul, confronté au mal, sans perspective de salut, dans une société moralement et politiquement corrompue. Dans Sécheresse, seul roman à la troisième personne, l'analyse psychologique cède le pas à l'étude des conditions de vie. Dans les mémoires, Enfance et Mémoires de prison, biographie et fiction se mêlent étroitement dans l'injustice et l'incompréhension de certaines situations de l'enfance, comme dans la violence et l'arbitraire de la prison sous la dictature de G. Vargas. À l'image de l'univers hostile, le style est sec et dépouillé. L'adjectif est banni, G. Ramos recherche la concision, le mot juste; les expressions populaires sertanejas font leur entrée en littérature. Il s'élève contre le langage pédant et fleuri des « bacheliers ». Ramos a su capter l'essentiel de la personnalité humaine, réconciliant régionalisme et universalité. »</t>
         </is>
       </c>
     </row>
@@ -583,35 +599,278 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Caetés (1933)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caetés (1933)
 São Bernardo (1934) Publié en français sous le titre São Bernardo, traduit par Geneviève Leibrich, Paris, Éditions Gallimard, « Du monde entier », 1986 ; réédition, Paris, Gallimard, « L'Imaginaire », 2015
 Angústia (1936) Publié en français sous le titre Angoisse, traduit par Geneviève Leibrich et Nicole Biros, Paris, Éditions Gallimard, « Du monde entier », 1992
 Vidas Secas (1938) Publié en français sous le titre Sécheresse, traduit par Marie-Claude Roussel, Paris, Éditions Gallimard, « La Croix du Sud », 1964 ; réédition, Paris, Éditions Gallimard, « Du monde entier », 1989 ; nouvelle édition sous le titre Vies arides, traduit par Mathieu Dosse, Paris, Éditions Chandeigne, 2014
-Brandão Entre o Mar e o Amor (1942), en collaboration avec Jorge Amado, José Lins do Rego, Aníbal Machado et Rachel de Queiroz
-Recueils de nouvelles et contes
-Dois dedos (1945)
+Brandão Entre o Mar e o Amor (1942), en collaboration avec Jorge Amado, José Lins do Rego, Aníbal Machado et Rachel de Queiroz</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles et contes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dois dedos (1945)
 Histórias Incompletas (1946)
-Insônia (1947) Publié en français sous le titre Insomnie, [Contient : « Insomnie » ; « Un voleur » ; « L'horloge de l'hôpital » ; « Paulo » ; « Luciana » ; « Minsk » ; « L'arrestation de J. Carmo Gomes » ; « Deux doigts » ; « Le témoin » ; « Jalousie » ; « Un pauvre diable » ; « Une visite » ; « Silveira Pereira »] traduit par Michel Laban, Paris, Éditions Gallimard, « Du monde entier », 1998
-Ouvrages de littérature d'enfance et de jeunesse
-A Terra dos Meninos Pelados (1939)
+Insônia (1947) Publié en français sous le titre Insomnie, [Contient : « Insomnie » ; « Un voleur » ; « L'horloge de l'hôpital » ; « Paulo » ; « Luciana » ; « Minsk » ; « L'arrestation de J. Carmo Gomes » ; « Deux doigts » ; « Le témoin » ; « Jalousie » ; « Un pauvre diable » ; « Une visite » ; « Silveira Pereira »] traduit par Michel Laban, Paris, Éditions Gallimard, « Du monde entier », 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Terra dos Meninos Pelados (1939)
 Histórias de Alexandre (1944)
 Alexandre e Outros Heróis (1962), publication posthume
-O Estribo de Prata (1984), publication posthume
-Autobiographie
-Infância (1945) Publié en français sous le titre Enfance, traduit par Georges Gougenheim, Paris, Éditions Gallimard, « La Croix du Sud », 1956 ; réédition, Paris, Éditions Gallimard, « Du monde entier », 1991
-Memórias do Cárcere (1953), publication posthume Publié en français sous le titre Mémoires de prison, traduit, préfacé et annoté par Antoine Seel et Jorge Coli, Paris, Éditions Gallimard, « Du monde entier », 1988
-Chroniques
-Viagem (1954), publication posthume
+O Estribo de Prata (1984), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Infância (1945) Publié en français sous le titre Enfance, traduit par Georges Gougenheim, Paris, Éditions Gallimard, « La Croix du Sud », 1956 ; réédition, Paris, Éditions Gallimard, « Du monde entier », 1991
+Memórias do Cárcere (1953), publication posthume Publié en français sous le titre Mémoires de prison, traduit, préfacé et annoté par Antoine Seel et Jorge Coli, Paris, Éditions Gallimard, « Du monde entier », 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chroniques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Viagem (1954), publication posthume
 Linhas Tortas (1962), publication posthume
-Viventes das Alagoas (1962), publication posthume
-Correspondances
-Cartas (1980), publication posthume
-Cartas de amor à Heloísa (1992), publication posthume
-Autre publication
-Garranchos (2012), publication posthume
-Adaptations cinématographiques
-1963 : Sécheresse (Vidas Secas), film brésilien réalisé par Nelson Pereira dos Santos, d’après le roman éponyme (1938)
+Viventes das Alagoas (1962), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Correspondances</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cartas (1980), publication posthume
+Cartas de amor à Heloísa (1992), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Garranchos (2012), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graciliano_Ramos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adaptations cinématographiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1963 : Sécheresse (Vidas Secas), film brésilien réalisé par Nelson Pereira dos Santos, d’après le roman éponyme (1938)
 1972 : São Bernardo, film brésilien réalisé par Leon Hirszman, d’après le roman éponyme (1934)
 1980 : Insônia (1980), film à sketches brésilien réalisé par Emmanuel Cavalcanti, Luís Paulino dos Santos, Nelson Pereira dos Santos, d’après plusieurs nouvelles provenant du recueil éponyme (1947)
 1984 : Mémoires de prison (Memórias de cárcere), film brésilien réalisé par Nelson Pereira dos Santos, d’après l'ouvrage autobiographique éponyme (1953)</t>
